--- a/data/00-raw-data/percent_us_women_senators.xlsx
+++ b/data/00-raw-data/percent_us_women_senators.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan Lim\Desktop\anly-501-project-5cminsuhlim\data\00-raw-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72FEAE3C-37DC-4007-963A-9602722E4103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BA23D326-9840-4937-83AA-2D5EEF76EDD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,9 +36,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Percentage of U.S. senators who are women</t>
-  </si>
-  <si>
-    <t>Starting date of congressional term</t>
   </si>
   <si>
     <t>Share of U.S. senators who are women</t>
@@ -89,16 +85,20 @@
   <si>
     <t>PEW RESEARCH CENTER</t>
   </si>
+  <si>
+    <t>Starting date of congressional term</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -135,6 +135,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Var(--wp--preset--font-family--"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -523,34 +530,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A310FC-E4C6-4316-904A-33D33BAF90D8}">
-  <dimension ref="A1:B37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="120.75" thickBot="1">
+    <row r="1" spans="1:6" ht="31.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="90">
+    <row r="3" spans="1:6" ht="29.5">
       <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="4">
         <v>1965</v>
       </c>
@@ -558,15 +567,16 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:6">
       <c r="A5" s="6">
         <v>1967</v>
       </c>
       <c r="B5" s="7">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="6">
         <v>1969</v>
       </c>
@@ -574,7 +584,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:6">
       <c r="A7" s="6">
         <v>1971</v>
       </c>
@@ -582,7 +592,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:6">
       <c r="A8" s="6">
         <v>1973</v>
       </c>
@@ -590,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:6">
       <c r="A9" s="6">
         <v>1975</v>
       </c>
@@ -598,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:6">
       <c r="A10" s="6">
         <v>1977</v>
       </c>
@@ -606,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:6">
       <c r="A11" s="6">
         <v>1979</v>
       </c>
@@ -614,7 +624,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:6">
       <c r="A12" s="6">
         <v>1981</v>
       </c>
@@ -622,7 +632,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:6">
       <c r="A13" s="6">
         <v>1983</v>
       </c>
@@ -630,7 +640,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:6">
       <c r="A14" s="6">
         <v>1985</v>
       </c>
@@ -638,7 +648,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:6">
       <c r="A15" s="6">
         <v>1987</v>
       </c>
@@ -646,7 +656,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:6">
       <c r="A16" s="6">
         <v>1989</v>
       </c>
@@ -782,22 +792,23 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="228">
+    <row r="33" spans="1:1" ht="42">
       <c r="A33" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="28">
+      <c r="A35" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="171">
-      <c r="A35" s="8" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="71.25">
-      <c r="A37" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
